--- a/src/attributions/attributions_ig_traj_398.xlsx
+++ b/src/attributions/attributions_ig_traj_398.xlsx
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1055,13 +1055,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1163,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
         <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG2" t="n">
         <v>0</v>
@@ -1352,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
@@ -1433,13 +1433,13 @@
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
         <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI2" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.08440094860274742</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1585,25 +1585,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04031165143260909</v>
+        <v>0.006301232016214748</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>-0.023058997692632</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.001998707161000151</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1144190738163288</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.02410958120406008</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1612,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02029228150208503</v>
+        <v>-0.01048314705891322</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0.01361638305075547</v>
       </c>
       <c r="P3" t="n">
-        <v>0.003595941377504013</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05223945973236888</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>-0.001015161706168448</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1639,79 +1639,79 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0197333678686455</v>
+        <v>-0.01379489527403371</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>0.0148168897488952</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.03829820892829975</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.007686256296088535</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
         <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0</v>
+        <v>0.01858549608963934</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.002815564384183449</v>
+        <v>0.0211860113128844</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>0.004967328903196723</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.02687220129178892</v>
+        <v>-0</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.01003678825378578</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0</v>
+        <v>0.01502966448191032</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.006637616827742416</v>
+        <v>-0.0111951483356003</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>-0.02190350035075703</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.01090656879555407</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.005317967799754519</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0</v>
+        <v>0.1116907066557526</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1720,52 +1720,52 @@
         <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.103791919395651</v>
+        <v>0.03529922869308269</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0.009219038599016401</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.1014826164772399</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.0980908913223181</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0.01269189094310904</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.02392103227689459</v>
+        <v>-0.01535720271545067</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>-0.006462891835168776</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.01017003845439179</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.01879060455192275</v>
+        <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>0.04790362678193091</v>
       </c>
       <c r="BN3" t="n">
         <v>-0</v>
@@ -1774,79 +1774,79 @@
         <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.02456837694484087</v>
+        <v>0.03260433707359189</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0.006920442415234446</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0.04251368189146417</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.02009853147474734</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
         <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.04836946211526206</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.1168057489552322</v>
+        <v>-0.01535612493247544</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>0.0350746895527475</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.006482587444361155</v>
+        <v>0</v>
       </c>
       <c r="CB3" t="n">
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.06689219252618929</v>
+        <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.01317841311922432</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.027279157715942</v>
+        <v>-0.00731613056990536</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>0.01765935675925932</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0.0196383392791607</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.009748469090821507</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>0.01193816572265544</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
@@ -1855,133 +1855,133 @@
         <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.06779128171758572</v>
+        <v>-0.005360719481054511</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>-0.038486155215571</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0.03822135018542434</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.06388132332443684</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.006463941637820793</v>
       </c>
       <c r="CX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.02034862997255943</v>
+        <v>-0.006921411360625258</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0</v>
+        <v>0.02148298442827631</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0.006772351507170881</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.03408012852769178</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
         <v>-0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>0.002594924311519506</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.04970179380560742</v>
+        <v>0.02195836511720325</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>0.02011756530066638</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.03301677718579661</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
         <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.01998294405340988</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
         <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0.007437342090832054</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
         <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.01213520458682673</v>
+        <v>0.02421280068380516</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>-0.009602765535947825</v>
       </c>
       <c r="DT3" t="n">
-        <v>-0.01992029746673323</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
         <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.01468126957205133</v>
+        <v>-0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>-0.03332275208414679</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.04206910529296347</v>
+        <v>-0.04525641478907282</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0</v>
+        <v>-0.01334943503428463</v>
       </c>
       <c r="EC3" t="n">
-        <v>-0.03594294867647208</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
         <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.02325628112556765</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.003130600432085098</v>
       </c>
       <c r="EH3" t="n">
         <v>-0</v>
@@ -1990,25 +1990,25 @@
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.01039822688970233</v>
+        <v>-0.01128372977112815</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>0.002565153878982001</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.01174946950856157</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.02693494150349999</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.004782190689853828</v>
       </c>
       <c r="EQ3" t="n">
         <v>-0</v>
@@ -2017,25 +2017,25 @@
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.005603332146613879</v>
+        <v>-0.02904318892618387</v>
       </c>
       <c r="ET3" t="n">
-        <v>0</v>
+        <v>-0.07290375372660021</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0.06348389919819478</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.03059279273949862</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.001376947256045571</v>
       </c>
       <c r="EZ3" t="n">
         <v>-0</v>
@@ -2044,52 +2044,52 @@
         <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.02076339952657604</v>
+        <v>-0.006675613461328673</v>
       </c>
       <c r="FC3" t="n">
-        <v>0</v>
+        <v>0.02148986081005339</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0.006773337406536426</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.02190811148090733</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>-0.02584558021082215</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
         <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.001554895863951956</v>
+        <v>-0.0501189435944211</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>-0.007157666471593306</v>
       </c>
       <c r="FM3" t="n">
-        <v>-0.02885947235380869</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
         <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0.01771410456209602</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.006242512191815478</v>
       </c>
       <c r="FR3" t="n">
         <v>0</v>
@@ -2098,46 +2098,46 @@
         <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.007553906741235633</v>
+        <v>-0.01442186785084242</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>0.03589552225207911</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0.03512636642720329</v>
+        <v>-0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0122726539239546</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
         <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0.03485961479116229</v>
       </c>
       <c r="GA3" t="n">
         <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
         <v>-0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0</v>
+        <v>-0.01029730559743866</v>
       </c>
       <c r="GE3" t="n">
-        <v>-0.03827983936041977</v>
+        <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0.05000823278915068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,70 +2145,70 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.3836454946861937</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.03097692043680945</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.09308640439234685</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01659391015913633</v>
+        <v>-0.09126931922489831</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06905040120511893</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0.210792888489997</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.003555667827045134</v>
+        <v>-0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0.01053419533937284</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.009142919061081776</v>
+        <v>-0.0867047139124897</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05125944193004341</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.1015832405763104</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.004608121488450026</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-0.01216169466055212</v>
       </c>
       <c r="W4" t="n">
-        <v>0.005838631478105065</v>
+        <v>-0.02084116873993643</v>
       </c>
       <c r="X4" t="n">
         <v>-0</v>
@@ -2217,52 +2217,52 @@
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01037257697318904</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.05300023826135532</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.008605139423253206</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0</v>
+        <v>-0.03339238211276682</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.008738409515500763</v>
+        <v>-0.01723238380516949</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.02263383425370753</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.07670741721586681</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.009278264631066473</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0</v>
+        <v>-0.05413878649414011</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.01757275688146485</v>
+        <v>-0.05701637730298302</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
@@ -2274,25 +2274,25 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0001407098588016489</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0</v>
+        <v>0.4427223953998405</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.07171733178114674</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>-0.04646642857068213</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01318831013002006</v>
+        <v>0.1329060763358925</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
         <v>-0</v>
@@ -2301,49 +2301,49 @@
         <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.06649865682397388</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0</v>
+        <v>0.03400943943779196</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.008060081498638124</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>-0.02534623509905633</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.002123983663914275</v>
+        <v>-0.1180790012163503</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.004761514438132711</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0</v>
+        <v>0.0642005645735087</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.02836154319649228</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0</v>
+        <v>0.1180472702840968</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.04139864192977948</v>
+        <v>0.06891407242255128</v>
       </c>
       <c r="BQ4" t="n">
         <v>-0</v>
@@ -2352,25 +2352,25 @@
         <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.01874215065845854</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
         <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0</v>
+        <v>0.2633232398277967</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.01425673201188614</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>-0.02686356766011045</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01643624336430771</v>
+        <v>-0.005495462956675912</v>
       </c>
       <c r="BZ4" t="n">
         <v>-0</v>
@@ -2379,25 +2379,25 @@
         <v>-0</v>
       </c>
       <c r="CB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.05550113343955853</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
         <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.1034741295069625</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0194324215116933</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0</v>
+        <v>0.02416261855858568</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.002289457331809867</v>
+        <v>-0.003898167020707994</v>
       </c>
       <c r="CI4" t="n">
         <v>-0</v>
@@ -2409,49 +2409,49 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.01899597205649978</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0.02658208272831469</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.000360592582667609</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>-0.08918989969678466</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.008979484348836246</v>
+        <v>-0.1571664544498456</v>
       </c>
       <c r="CR4" t="n">
         <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.02923415905270573</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
         <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.08144128162828022</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.009693958684888218</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>0.06005848111843998</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.0071214282554</v>
+        <v>-0.00415226073250238</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2463,25 +2463,25 @@
         <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.02212835895022412</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.06022559081736251</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.02956576681969402</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0</v>
+        <v>0.06016741528140626</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.00304080052031832</v>
+        <v>-0.01145750903933057</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK4" t="n">
         <v>-0</v>
@@ -2490,25 +2490,25 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.03851714771320779</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
         <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0</v>
+        <v>-0.06435292901561054</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0.0068184380958557</v>
+        <v>-0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>-0.05160751814156096</v>
       </c>
       <c r="DR4" t="n">
-        <v>-3.014737649435966e-05</v>
+        <v>-0.0156853536233725</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
         <v>-0</v>
@@ -2517,22 +2517,22 @@
         <v>-0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.01609988042529474</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>0.03949729069093381</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.009166373304984623</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0.02606983047856969</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.006618439967934276</v>
+        <v>-0.01980471277938065</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
@@ -2541,25 +2541,25 @@
         <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.01211824701373088</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.05296651233063275</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.01174729395131873</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>0.07928953146220015</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.02915398790343342</v>
+        <v>0.04595607892472457</v>
       </c>
       <c r="EK4" t="n">
         <v>-0</v>
@@ -2568,25 +2568,25 @@
         <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.02127518840999424</v>
+        <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0.08232238644166973</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.00567423670912796</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0</v>
+        <v>-0.08579133588256346</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.01662515894963619</v>
+        <v>-0.02961414585450922</v>
       </c>
       <c r="ET4" t="n">
         <v>-0</v>
@@ -2595,25 +2595,25 @@
         <v>-0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.02442461266060989</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
         <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.09343115600467349</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.01465694442583083</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0</v>
+        <v>0.04793870477197697</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.002525575440180886</v>
+        <v>-0.02160916754672522</v>
       </c>
       <c r="FC4" t="n">
         <v>-0</v>
@@ -2625,25 +2625,25 @@
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.02735931453674197</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
         <v>-0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>0.008394309925113161</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.01948596564486468</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0</v>
+        <v>0.07032942214801258</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.01417065256765267</v>
+        <v>-0.003112923766127958</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM4" t="n">
         <v>0</v>
@@ -2652,22 +2652,22 @@
         <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.03622445656048676</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>0.01379251158395955</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.01108518351418993</v>
+        <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0</v>
+        <v>0.007932420252398077</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0001197444184387147</v>
+        <v>0.04251077813877549</v>
       </c>
       <c r="FU4" t="n">
         <v>-0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.001786562179081267</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>-0.002780105288052959</v>
       </c>
       <c r="GA4" t="n">
-        <v>-0.007151657798731904</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>-0.02324492507080232</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
@@ -2700,13 +2700,13 @@
         <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.01733769733647278</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2735,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -2762,13 +2762,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -2816,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
@@ -2897,13 +2897,13 @@
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
         <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
@@ -2951,13 +2951,13 @@
         <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
@@ -3059,13 +3059,13 @@
         <v>0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH5" t="n">
         <v>0</v>
@@ -3140,13 +3140,13 @@
         <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ5" t="n">
         <v>0</v>
@@ -3167,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
@@ -3194,13 +3194,13 @@
         <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI5" t="n">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
@@ -3283,16 +3283,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.2734709250969927</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.007531648826722474</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>-0.01656279059935801</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0127903190728235</v>
+        <v>-0.03532206335922913</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3304,76 +3304,76 @@
         <v>-0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05025096755442775</v>
+        <v>-0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.1279032204509686</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005125297949479341</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0</v>
+        <v>0.01315272266921724</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.009493752542853437</v>
+        <v>-0.03663248511554056</v>
       </c>
       <c r="O6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03922426160596001</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>0.04800056615232391</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005001664345586849</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>-0.0178133636294931</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.001096257137567865</v>
+        <v>0.03847434953600808</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y6" t="n">
         <v>-0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01834324499398422</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.04069224824287786</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.01217171741249091</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0</v>
+        <v>-0.004247861677934876</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.01387789824655762</v>
+        <v>0.002071873351593078</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -3382,25 +3382,25 @@
         <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.01889575282215483</v>
+        <v>-0</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0.008973734130676536</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.01480350756798428</v>
+        <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>-0.01936192805655749</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.01885861808597879</v>
+        <v>-0.03829707601787757</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -3412,52 +3412,52 @@
         <v>-0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.003837932564645315</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.2861617997569122</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.0209879951971214</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>0.03121390016164712</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.01642066174957581</v>
+        <v>0.07216275915364746</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.05459194647770475</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0</v>
+        <v>0.04503182824325454</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.009986603641521272</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0</v>
+        <v>-0.04411623881288795</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.002130827303372969</v>
+        <v>-0.04625351565820888</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="n">
         <v>0</v>
@@ -3466,49 +3466,49 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0.01900354804548582</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0</v>
+        <v>0.1046970549562724</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.04177523708406074</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>0.02406344708078152</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.01823189270984732</v>
+        <v>0.1121315592084563</v>
       </c>
       <c r="BQ6" t="n">
         <v>-0</v>
       </c>
       <c r="BR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0.01895607230631176</v>
+        <v>-0</v>
       </c>
       <c r="BU6" t="n">
         <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.1544560284916798</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.01547525995140929</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0</v>
+        <v>0.03063601793053538</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.01978311184095154</v>
+        <v>0.0329844386198656</v>
       </c>
       <c r="BZ6" t="n">
         <v>-0</v>
@@ -3520,49 +3520,49 @@
         <v>-0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.05376246536300114</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
         <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.0664722330739969</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.01089315032918382</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>-0.002336196207446382</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.005628085261282801</v>
+        <v>-0.0009873776695465788</v>
       </c>
       <c r="CI6" t="n">
         <v>-0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0.007778747766305763</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0.0554910861128541</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.002594474593935519</v>
+        <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0</v>
+        <v>-0.04510073205745924</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.03047935070329116</v>
+        <v>-0.06701911248464423</v>
       </c>
       <c r="CR6" t="n">
         <v>0</v>
@@ -3571,25 +3571,25 @@
         <v>0</v>
       </c>
       <c r="CT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.03290626627778283</v>
+        <v>-0</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.04731519436655857</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.01271438766234548</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0.009277005982134384</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.01175181770738202</v>
+        <v>-0.002130324633390895</v>
       </c>
       <c r="DA6" t="n">
         <v>0</v>
@@ -3601,22 +3601,22 @@
         <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0.01120099917190734</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
         <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.01281296907707961</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.03880880327524223</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0</v>
+        <v>0.06455568655513604</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.002046497725967796</v>
+        <v>0.004124579681731411</v>
       </c>
       <c r="DJ6" t="n">
         <v>-0</v>
@@ -3628,52 +3628,52 @@
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.00478800403274719</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.07935816727173679</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0.03240899703484136</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0</v>
+        <v>-0.01017228502418743</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.007076490542463999</v>
+        <v>-0.01798896414493234</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="n">
         <v>-0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.01718503995887016</v>
+        <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>-0.009030765607100652</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0.002969356290759851</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0</v>
+        <v>-0.005132272163888154</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.007265216467853863</v>
+        <v>-0.02478333135251647</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC6" t="n">
         <v>0</v>
@@ -3682,49 +3682,49 @@
         <v>0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0.01528932330208942</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
         <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.04368663634617597</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.001896549612393066</v>
+        <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>0</v>
+        <v>0.004234668626125668</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.02255903339567733</v>
+        <v>0.04200686467530815</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL6" t="n">
         <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0.01133016497865163</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.03240650373466255</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0.02093076269015754</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0</v>
+        <v>0.006863686414720195</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.004076081235545302</v>
+        <v>0.02601500813307979</v>
       </c>
       <c r="ET6" t="n">
         <v>-0</v>
@@ -3733,103 +3733,103 @@
         <v>-0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0.01406461557278057</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
         <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.04622187686743717</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.01265683289144357</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>0.001232189368747713</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.00155988211733145</v>
+        <v>0.01284830728024838</v>
       </c>
       <c r="FC6" t="n">
         <v>-0</v>
       </c>
       <c r="FD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0.01582994220085909</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>0.00566408038452801</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.009871448263262238</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0</v>
+        <v>0.004449340401770054</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.02646594004540708</v>
+        <v>-0.03073844117544607</v>
       </c>
       <c r="FL6" t="n">
         <v>-0</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0.0361449471873086</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0</v>
+        <v>-0.03657807896288052</v>
       </c>
       <c r="FR6" t="n">
-        <v>-0.0027612232860484</v>
+        <v>0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0</v>
+        <v>-0.02271692819191403</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.01791741029618836</v>
+        <v>0.0123352386926605</v>
       </c>
       <c r="FU6" t="n">
         <v>-0</v>
       </c>
       <c r="FV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW6" t="n">
         <v>0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0.005412296588699302</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.01065250289943449</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.01348126181345285</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0.02806435739250662</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
@@ -3838,13 +3838,13 @@
         <v>-0</v>
       </c>
       <c r="GE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>-0.01659754754137019</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -3852,127 +3852,127 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.216864286648438</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0695943577643572</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04515959793537735</v>
+        <v>0.01143035383736961</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>-0.1299524673054379</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1687873556480172</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.1368045076915777</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.01491309370200359</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.03184493644220896</v>
+        <v>-0.003815716621475814</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>-0.08273774947516563</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
         <v>-0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1603129982724168</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.00789361096447313</v>
       </c>
       <c r="U7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.01762014538190613</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09674531242834344</v>
+        <v>-0.02680369112178394</v>
       </c>
       <c r="X7" t="n">
-        <v>-0</v>
+        <v>-0.008808615740041039</v>
       </c>
       <c r="Y7" t="n">
         <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0543761678952005</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.02868377239076729</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.003546046308261964</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.03661429979798646</v>
+        <v>0.01815066834270471</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>-0.0100880673271035</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.06289489647632052</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0</v>
+        <v>0.0119086573341829</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.01234678196285937</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.02780516464896273</v>
+        <v>-0.02631743465136811</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>-0.05144471721620988</v>
       </c>
       <c r="AQ7" t="n">
         <v>0</v>
@@ -3981,25 +3981,25 @@
         <v>-0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.02320382557584929</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0</v>
+        <v>0.1664629257209929</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0.07558714095746974</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.03073784455823254</v>
+        <v>-0.007490108327991972</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0.07037471332052052</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
@@ -4008,52 +4008,52 @@
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.09175139503658174</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>0.06876721579801763</v>
       </c>
       <c r="BE7" t="n">
         <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.02860554052541033</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.03668072075532358</v>
+        <v>-0.02041077999653357</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>-0.04818071897400177</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.01415326146072072</v>
+        <v>-0</v>
       </c>
       <c r="BL7" t="n">
         <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.0785418338068771</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0.01329355889939844</v>
+        <v>-0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.01571515396439023</v>
+        <v>0.04793264121558687</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0</v>
+        <v>0.008959182921481902</v>
       </c>
       <c r="BR7" t="n">
         <v>-0</v>
@@ -4062,295 +4062,295 @@
         <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.06868928410371752</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0</v>
+        <v>0.09022961512010096</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0.06711428513438014</v>
+        <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.01421280143005581</v>
+        <v>-0.02042726362581106</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>-0.01108576901486806</v>
       </c>
       <c r="CA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.133958268667534</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
         <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.04836720372375943</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.02198313368525248</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.008918181807735842</v>
+        <v>-0.01086833962051203</v>
       </c>
       <c r="CI7" t="n">
-        <v>0</v>
+        <v>0.03743702576942352</v>
       </c>
       <c r="CJ7" t="n">
         <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0.02827935374692421</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.02971526368426385</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.002957475527354101</v>
+        <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.01454970022117844</v>
+        <v>0.02642603967475154</v>
       </c>
       <c r="CR7" t="n">
-        <v>0</v>
+        <v>-0.03602061742008963</v>
       </c>
       <c r="CS7" t="n">
         <v>-0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.05153574496060299</v>
+        <v>0</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.0321256622139813</v>
       </c>
       <c r="CX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0294362154846313</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.006697395939374921</v>
+        <v>-0.01058375380611812</v>
       </c>
       <c r="DA7" t="n">
-        <v>-0</v>
+        <v>0.03563671799138315</v>
       </c>
       <c r="DB7" t="n">
         <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0.04066898205877671</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.009877442954452803</v>
       </c>
       <c r="DG7" t="n">
         <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.02851277963114296</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.001920430073194995</v>
+        <v>0.002507159241598074</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0.003364767616034653</v>
       </c>
       <c r="DK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL7" t="n">
         <v>-0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.005659104398787381</v>
+        <v>-0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.03535493925990531</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.009836627611667564</v>
+        <v>0</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.01994957474754597</v>
+        <v>0.01521037323716219</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>-0.01696931342078842</v>
       </c>
       <c r="DT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU7" t="n">
         <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0321205605229268</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
         <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.009858814659470916</v>
       </c>
       <c r="DY7" t="n">
         <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>-0.02679384477803254</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.01697917710296579</v>
+        <v>-0.02470046319794069</v>
       </c>
       <c r="EB7" t="n">
-        <v>0</v>
+        <v>-0.004913031991203256</v>
       </c>
       <c r="EC7" t="n">
         <v>-0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.02801033743082634</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
         <v>-0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.02156246365496496</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.008392696902475584</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0490146789209066</v>
+        <v>0.004618937855440788</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0</v>
+        <v>0.02568581511987382</v>
       </c>
       <c r="EL7" t="n">
         <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>-0.04106180240147579</v>
+        <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.03108273694669908</v>
       </c>
       <c r="EQ7" t="n">
         <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.03537946937021978</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.001022776774275558</v>
+        <v>-0.01545850338242516</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>0.06339073702808</v>
       </c>
       <c r="EU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0.02805264999722984</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
         <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.03536169564870971</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.01729161124311654</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.003619006793834002</v>
+        <v>-0.003466847984897275</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>0.04038560225881216</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0.05111252749635432</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.006528883595991354</v>
       </c>
       <c r="FI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0.008615912470380164</v>
+        <v>-0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.03817938482464912</v>
+        <v>-0.02583508315812875</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0.01930090200584055</v>
       </c>
       <c r="FM7" t="n">
         <v>-0</v>
@@ -4359,25 +4359,25 @@
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0.04548858082380216</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
         <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>-0.02471760914341506</v>
       </c>
       <c r="FR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.002142269188729386</v>
+        <v>0</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.0008980408801305339</v>
+        <v>-0.03102413282885879</v>
       </c>
       <c r="FU7" t="n">
-        <v>-0</v>
+        <v>0.002086133861337379</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
@@ -4386,63 +4386,63 @@
         <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0.03499586968599719</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.02898713024414378</v>
       </c>
       <c r="GA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.04920566935675561</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>-0</v>
+        <v>-0.02474126999421371</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
         <v>-0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.004813543907330074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>-0.2032110328155803</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0.3190568812369344</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.001229719302480586</v>
+        <v>-0.05429625442983015</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2161390339204447</v>
+        <v>-0</v>
       </c>
       <c r="G8" t="n">
         <v>-0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.07410087587848391</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -4451,184 +4451,184 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0</v>
+        <v>-0.08961352545669121</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0.3100683697935187</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.04292907248071109</v>
+        <v>0.06511804859062365</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1736316748146654</v>
+        <v>-0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.04365657025456424</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>-0</v>
+        <v>-0.05085837336626176</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.07921251372394666</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.04864651000223883</v>
+        <v>0.00433336302137876</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03876521160083864</v>
+        <v>-0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.006786390885986258</v>
+        <v>-0</v>
       </c>
       <c r="AA8" t="n">
         <v>-0</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.002931917981202756</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>-0.06879100453733288</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.04174632371076576</v>
+        <v>-0.0628711626260202</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.006374275275028245</v>
+        <v>-0</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.005260843343418089</v>
+        <v>-0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>-0.006763591541608337</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.05059258514820261</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0454463520353919</v>
+        <v>0.06457882307670043</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.01196775389518181</v>
+        <v>-0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.01085431911482646</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>-0.1223823151151266</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>0.2056988821529689</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.02071539021385622</v>
+        <v>-0.1871657033850715</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.1121677149944228</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0.05309423729886763</v>
+        <v>-0</v>
       </c>
       <c r="BB8" t="n">
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>-0.02858878518267212</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0.03572740283763775</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.01820436705041475</v>
+        <v>-0.027345551681121</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.02781948512572998</v>
+        <v>-0</v>
       </c>
       <c r="BI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0.02701329315726873</v>
+        <v>0</v>
       </c>
       <c r="BK8" t="n">
         <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
         <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>0.05712993816438941</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>-0.03109150493877358</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.03126909944330372</v>
+        <v>-0.1639489864863477</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0.04500729224603952</v>
+        <v>0</v>
       </c>
       <c r="BR8" t="n">
         <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.001232725334919712</v>
+        <v>-0</v>
       </c>
       <c r="BT8" t="n">
         <v>0</v>
@@ -4640,76 +4640,76 @@
         <v>0</v>
       </c>
       <c r="BW8" t="n">
-        <v>0</v>
+        <v>-0.1400013863853458</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>0.1631511956926911</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.01482706141852762</v>
+        <v>-0.1279525081983088</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.1009234200864168</v>
+        <v>-0</v>
       </c>
       <c r="CA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB8" t="n">
-        <v>-0.03170660126476781</v>
+        <v>-0</v>
       </c>
       <c r="CC8" t="n">
         <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF8" t="n">
-        <v>0</v>
+        <v>0.07146808793342588</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>-0.07203126060285131</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0026139168952223</v>
+        <v>-0.0206241764028169</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0.04627961434402249</v>
+        <v>-0</v>
       </c>
       <c r="CJ8" t="n">
         <v>0</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.02604258306454374</v>
+        <v>-0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>-0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
-        <v>0</v>
+        <v>0.02729911983137989</v>
       </c>
       <c r="CP8" t="n">
-        <v>0</v>
+        <v>0.05216365985622556</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.05203303308366067</v>
+        <v>0.117976936062134</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.07845360415414493</v>
+        <v>0</v>
       </c>
       <c r="CS8" t="n">
         <v>-0</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.01723505347277807</v>
+        <v>0</v>
       </c>
       <c r="CU8" t="n">
         <v>0</v>
@@ -4718,79 +4718,79 @@
         <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CX8" t="n">
-        <v>-0</v>
+        <v>0.04901854122519995</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>-0.06228202072978322</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.003953882767673025</v>
+        <v>-0.02958642233572432</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0.05197225141975721</v>
+        <v>0</v>
       </c>
       <c r="DB8" t="n">
         <v>-0</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.03517676083277873</v>
+        <v>-0</v>
       </c>
       <c r="DD8" t="n">
         <v>-0</v>
       </c>
       <c r="DE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
         <v>0</v>
       </c>
       <c r="DG8" t="n">
-        <v>-0</v>
+        <v>0.01177987150223061</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0.07528141296932805</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.003793300948266729</v>
+        <v>0.005031694126741959</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0.02398832851484524</v>
+        <v>0</v>
       </c>
       <c r="DK8" t="n">
         <v>0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0.005212719158616347</v>
+        <v>-0</v>
       </c>
       <c r="DM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DP8" t="n">
-        <v>0</v>
+        <v>0.05065129266407726</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0</v>
+        <v>-0.03145547851016951</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.0217634582143094</v>
+        <v>0.0748144822362288</v>
       </c>
       <c r="DS8" t="n">
-        <v>-0.02106049236162124</v>
+        <v>-0</v>
       </c>
       <c r="DT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.02867019016955737</v>
+        <v>0</v>
       </c>
       <c r="DV8" t="n">
         <v>-0</v>
@@ -4802,76 +4802,76 @@
         <v>-0</v>
       </c>
       <c r="DY8" t="n">
-        <v>0</v>
+        <v>-0.004826673691619097</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>0.02987060268187951</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.004121270721087531</v>
+        <v>0.03107778838155132</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0.008842837952993437</v>
+        <v>-0</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.02260386949896904</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
         <v>-0</v>
       </c>
       <c r="EH8" t="n">
-        <v>-0</v>
+        <v>0.08010696090910485</v>
       </c>
       <c r="EI8" t="n">
-        <v>0</v>
+        <v>-0.1093417736268444</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.01386787953154908</v>
+        <v>-0.04631693243945469</v>
       </c>
       <c r="EK8" t="n">
-        <v>-0.05979311175381324</v>
+        <v>0</v>
       </c>
       <c r="EL8" t="n">
         <v>0</v>
       </c>
       <c r="EM8" t="n">
-        <v>-0.006436685830426262</v>
+        <v>0</v>
       </c>
       <c r="EN8" t="n">
         <v>0</v>
       </c>
       <c r="EO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0</v>
+        <v>0.02407575698732089</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0.04236544088497952</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.02288282430593395</v>
+        <v>-0.03806780649318995</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0.03058733992531086</v>
+        <v>-0</v>
       </c>
       <c r="EU8" t="n">
         <v>0</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.03024354092078212</v>
+        <v>-0</v>
       </c>
       <c r="EW8" t="n">
         <v>0</v>
@@ -4880,25 +4880,25 @@
         <v>-0</v>
       </c>
       <c r="EY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0</v>
+        <v>0.06522939512771149</v>
       </c>
       <c r="FA8" t="n">
-        <v>0</v>
+        <v>-0.07109526174167904</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.007177888933318175</v>
+        <v>-0.039274156393684</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0.04963471493494288</v>
+        <v>-0</v>
       </c>
       <c r="FD8" t="n">
         <v>0</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.03146733985800199</v>
+        <v>0</v>
       </c>
       <c r="FF8" t="n">
         <v>0</v>
@@ -4907,52 +4907,52 @@
         <v>-0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI8" t="n">
-        <v>-0</v>
+        <v>0.028934240092617</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0</v>
+        <v>0.03680306060474948</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.0134651768143268</v>
+        <v>-0.07219062891801813</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0.0228003864140584</v>
+        <v>0</v>
       </c>
       <c r="FM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.0564784511609145</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
         <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR8" t="n">
-        <v>0</v>
+        <v>0.01476737122975647</v>
       </c>
       <c r="FS8" t="n">
-        <v>0</v>
+        <v>0.004897372412560036</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.0560653725655792</v>
+        <v>-0.08033990727461443</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.01128935861894154</v>
+        <v>0</v>
       </c>
       <c r="FV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.007311127855392275</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
         <v>0</v>
@@ -4964,25 +4964,25 @@
         <v>0</v>
       </c>
       <c r="GA8" t="n">
-        <v>0</v>
+        <v>0.02414975868962727</v>
       </c>
       <c r="GB8" t="n">
-        <v>-0</v>
+        <v>0.05237701230296286</v>
       </c>
       <c r="GC8" t="n">
         <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.01567550321503776</v>
+        <v>-0</v>
       </c>
       <c r="GE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.003264490413472862</v>
+        <v>-0</v>
       </c>
       <c r="GG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>-0</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -5029,7 +5029,7 @@
         <v>-0</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>-0</v>
       </c>
       <c r="X9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>-0</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>-0</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
         <v>0</v>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>-0</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
@@ -5164,7 +5164,7 @@
         <v>-0</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
@@ -5191,7 +5191,7 @@
         <v>-0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR9" t="n">
         <v>0</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
@@ -5218,7 +5218,7 @@
         <v>-0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
@@ -5245,7 +5245,7 @@
         <v>-0</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ9" t="n">
         <v>0</v>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
@@ -5272,7 +5272,7 @@
         <v>-0</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS9" t="n">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>-0</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK9" t="n">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>-0</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT9" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
@@ -5407,7 +5407,7 @@
         <v>-0</v>
       </c>
       <c r="EK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL9" t="n">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ9" t="n">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>-0</v>
       </c>
       <c r="ET9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU9" t="n">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>-0</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD9" t="n">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI9" t="n">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>-0</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM9" t="n">
         <v>0</v>
@@ -5559,52 +5559,52 @@
         <v>-0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.264104625073795</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08566564125017453</v>
+        <v>-0.2485206480820467</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1786044035055058</v>
+        <v>-0.07897284315129049</v>
       </c>
       <c r="G10" t="n">
         <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.009298880545936795</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.1688855793614725</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.002205061719244386</v>
+        <v>-0.2128006195205676</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1621829250768622</v>
+        <v>-0.07699486986944411</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.02334147902598675</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.05384214227774273</v>
       </c>
       <c r="U10" t="n">
         <v>-0</v>
@@ -5622,16 +5622,16 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.04573241539603616</v>
+        <v>-0.007068793120413116</v>
       </c>
       <c r="X10" t="n">
-        <v>0.000641356265706749</v>
+        <v>0.05248474377731115</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.02391490599006385</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -5640,61 +5640,61 @@
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.05601186978547228</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.07320525466818972</v>
+        <v>-0.0008421390309708468</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.0203125723836367</v>
+        <v>0.02098032394674807</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.02837772034523572</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.06584566905399772</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.007020200058947148</v>
+        <v>-0.0264635322808543</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.01713222867240644</v>
+        <v>-0.02738350104291321</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0176435221285215</v>
+        <v>-0</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.2398112073660101</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
@@ -5703,97 +5703,97 @@
         <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.008300738343149846</v>
+        <v>-0.09960808047690846</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.04884922599929746</v>
+        <v>-0.04393254093621919</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.01431313756715705</v>
+        <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
         <v>-0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.05320484120239224</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.01406737873380795</v>
+        <v>-0.1440074718833448</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.04688892108816408</v>
+        <v>-0.03501795472371914</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.03535044648416806</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.1201893222188195</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.003724510573443954</v>
+        <v>0.05447646155789462</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.03209622339741289</v>
+        <v>0.05867082401031431</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>-0.02125141040527067</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.1614555222821348</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
         <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.07304397515487734</v>
+        <v>-0.05410170195217793</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.105075580566872</v>
+        <v>0.03124340784275591</v>
       </c>
       <c r="CA10" t="n">
         <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.008538322054180075</v>
+        <v>-0</v>
       </c>
       <c r="CC10" t="n">
         <v>-0</v>
@@ -5802,106 +5802,106 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.04369039506199975</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.009585052344216992</v>
+        <v>0.03912762188810325</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.02888470021569249</v>
+        <v>0.03009578347315211</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0003403739624427619</v>
+        <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.04934661257828325</v>
       </c>
       <c r="CO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.008470990129795575</v>
+        <v>-0.02447368689268535</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.04544379721977751</v>
+        <v>-0.01642757211690539</v>
       </c>
       <c r="CS10" t="n">
         <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.03503823597583246</v>
+        <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV10" t="n">
         <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.02396535172223286</v>
       </c>
       <c r="CX10" t="n">
         <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.02329642095123018</v>
+        <v>0.03775246226485882</v>
       </c>
       <c r="DA10" t="n">
-        <v>-0.03763489504649323</v>
+        <v>0.03885568045665938</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.008252643197485577</v>
+        <v>0</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
         <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.0498175210965279</v>
       </c>
       <c r="DG10" t="n">
         <v>-0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.06424344750772731</v>
+        <v>0.02322863544493467</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0.008521288954242414</v>
+        <v>-0.006994415250422894</v>
       </c>
       <c r="DK10" t="n">
         <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.001831391204146458</v>
+        <v>-0</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
@@ -5910,196 +5910,196 @@
         <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.04086519685561452</v>
       </c>
       <c r="DP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.003776017399355271</v>
+        <v>0.01108480743143204</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.0481936719970355</v>
+        <v>-0.0736582169766235</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0.01524465624702373</v>
+        <v>-0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.01134840012347977</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.02323464666584247</v>
+        <v>-0.05827830801922173</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.01324814347780473</v>
+        <v>-0.05428962223870487</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.02803927093836167</v>
+        <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF10" t="n">
         <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.01808937818251577</v>
       </c>
       <c r="EH10" t="n">
         <v>0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.03302332194425137</v>
+        <v>0.04582591772550092</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.0759599285238773</v>
+        <v>0.01822300866276186</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>-0.06350587445829547</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>0.03883334282360606</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.004790316910952241</v>
+        <v>0.01856368538874706</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0.01812003135398147</v>
+        <v>0.05763376540731399</v>
       </c>
       <c r="EU10" t="n">
         <v>0</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.03030028656884656</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX10" t="n">
         <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.01726274255845798</v>
       </c>
       <c r="EZ10" t="n">
         <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.02135895126397498</v>
+        <v>0.0324700355103799</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0.03260190823556162</v>
+        <v>0.04282637791204649</v>
       </c>
       <c r="FD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.008630613228079538</v>
+        <v>-0</v>
       </c>
       <c r="FF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.05403354787733576</v>
       </c>
       <c r="FI10" t="n">
         <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.01156632447933943</v>
+        <v>-0.04110240189413623</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.02172214341248404</v>
+        <v>0.02431927888873728</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.01484899504796904</v>
+        <v>-0</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>0.005092202056443456</v>
       </c>
       <c r="FR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.009400315286473108</v>
+        <v>-0.008546582290248636</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.008317470863134968</v>
+        <v>-0.001242687480695364</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.02024430600121143</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>-0.05508977738550464</v>
       </c>
       <c r="GA10" t="n">
         <v>0</v>
@@ -6111,16 +6111,16 @@
         <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.04146302880528564</v>
+        <v>-0.0459809164027562</v>
       </c>
       <c r="GE10" t="n">
         <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.02846442823490137</v>
+        <v>-0</v>
       </c>
       <c r="GG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,22 +6128,22 @@
         <v>-0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8505107129878515</v>
+        <v>-0.442382249433143</v>
       </c>
       <c r="C11" t="n">
         <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.3747995993462746</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2437611095405366</v>
+        <v>0.06651023835555633</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4852921551237365</v>
+        <v>-0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -6155,25 +6155,25 @@
         <v>-0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7188162177007095</v>
+        <v>-0.3198233993159657</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M11" t="n">
-        <v>-0</v>
+        <v>0.3427104479341317</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.04949566282982917</v>
+        <v>0.1208805407141284</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.499142015043414</v>
+        <v>-0</v>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
         <v>-0</v>
@@ -6182,19 +6182,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.07992557304661504</v>
+        <v>-0.060837581699869</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0</v>
+        <v>0.09337584099454896</v>
       </c>
       <c r="W11" t="n">
-        <v>0.05733120300960071</v>
+        <v>0.03387214980602345</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.04681903917737303</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -6209,46 +6209,46 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.2127207793224133</v>
+        <v>-0.05427026463074897</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0</v>
+        <v>-0.005882682600939535</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.01046604154855345</v>
+        <v>0.01579804246694199</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1020245737150879</v>
+        <v>-0</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK11" t="n">
         <v>-0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.1109376533542656</v>
+        <v>-0.07918641762737882</v>
       </c>
       <c r="AM11" t="n">
         <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0</v>
+        <v>0.006403671640698059</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.05736515958649038</v>
+        <v>0.04460325771461742</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.1473018804797226</v>
+        <v>-0</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -6257,25 +6257,25 @@
         <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.3652409117763215</v>
+        <v>-0.3216079518057502</v>
       </c>
       <c r="AV11" t="n">
         <v>-0</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0</v>
+        <v>0.1251110557586896</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.0683824415583662</v>
+        <v>-0.01998069808896589</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.2154071947133867</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
@@ -6284,85 +6284,85 @@
         <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.2709084816976038</v>
+        <v>-0.02523909472222382</v>
       </c>
       <c r="BE11" t="n">
         <v>-0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>0.1592216421799026</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.01467697032266344</v>
+        <v>0.253488278599699</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0.01762813804379066</v>
+        <v>-0</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL11" t="n">
         <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0.01296101916632859</v>
+        <v>0.006113677122042046</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0.01084323145018735</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.1803163527687099</v>
+        <v>-0.05747526036399998</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.2466592093239815</v>
+        <v>0</v>
       </c>
       <c r="BR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.1961472597673594</v>
+        <v>-0.2549898676879342</v>
       </c>
       <c r="BW11" t="n">
         <v>-0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>0.1279045257946712</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.2264396234874516</v>
+        <v>-0.01797495143687422</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0.4157648300580521</v>
+        <v>0</v>
       </c>
       <c r="CA11" t="n">
         <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
         <v>-0</v>
@@ -6371,154 +6371,154 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-0.2036196015258713</v>
+        <v>0.08241687855633757</v>
       </c>
       <c r="CF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0</v>
+        <v>-0.07103931190142759</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.04937096164722849</v>
+        <v>0.03648375222765497</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.1112748088381765</v>
+        <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK11" t="n">
         <v>-0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
         <v>-0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.04399018235274433</v>
+        <v>-0.03733395568155085</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>-0.07767144792694908</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.04163779453199102</v>
+        <v>-0.01794562867111722</v>
       </c>
       <c r="CR11" t="n">
-        <v>-0.1671205125796726</v>
+        <v>-0</v>
       </c>
       <c r="CS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT11" t="n">
         <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0.173955307179733</v>
+        <v>0.08285921797611127</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>0</v>
+        <v>-0.06728278254238276</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.008376927993194056</v>
+        <v>0.0033653874995146</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.09547856148790966</v>
+        <v>-0</v>
       </c>
       <c r="DB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
       </c>
       <c r="DD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE11" t="n">
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>-0.006760207074832763</v>
+        <v>0.1119811808794673</v>
       </c>
       <c r="DG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0.03190294314502466</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.07777653872510126</v>
+        <v>0.01289305448750696</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.01091796934150857</v>
+        <v>-0</v>
       </c>
       <c r="DK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>-0.04505508654091444</v>
+        <v>0.06898532762388809</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0</v>
+        <v>-0.1001153315500573</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.02227665616342599</v>
+        <v>0.07751297470501176</v>
       </c>
       <c r="DS11" t="n">
-        <v>-0.164473277467891</v>
+        <v>-0</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.07506645491392047</v>
+        <v>-0.01195631187899207</v>
       </c>
       <c r="DY11" t="n">
         <v>-0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>-0</v>
+        <v>0.05562582753999609</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.03910771381660117</v>
+        <v>-0.02235360264038659</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0.05133066245143555</v>
+        <v>-0</v>
       </c>
       <c r="EC11" t="n">
         <v>-0</v>
@@ -6527,31 +6527,31 @@
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0.2918246722479083</v>
+        <v>0.004794078675077203</v>
       </c>
       <c r="EH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0</v>
+        <v>-0.04772513083821293</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.1374601085432636</v>
+        <v>-0.01775137187064316</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.1387281782370485</v>
+        <v>0</v>
       </c>
       <c r="EL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN11" t="n">
         <v>0</v>
@@ -6560,25 +6560,25 @@
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0.04427789264335528</v>
+        <v>0.1069167440826389</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>0.005774816637704035</v>
       </c>
       <c r="ES11" t="n">
-        <v>-0.01050985273569401</v>
+        <v>-0.03859785505239472</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.19821593595365</v>
+        <v>0</v>
       </c>
       <c r="EU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW11" t="n">
         <v>0</v>
@@ -6587,207 +6587,207 @@
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>-0.19108551897249</v>
+        <v>0.09632321230935817</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0</v>
+        <v>-0.08918025267885014</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.037242306805149</v>
+        <v>0.0198680724538197</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.13700345691723</v>
+        <v>0</v>
       </c>
       <c r="FD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE11" t="n">
         <v>-0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0.06970671699011767</v>
+        <v>0.02687333462369916</v>
       </c>
       <c r="FI11" t="n">
         <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0</v>
+        <v>-0.01436673918717214</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.00296143747459425</v>
+        <v>-0.02489312972164674</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.1093459935562106</v>
+        <v>0</v>
       </c>
       <c r="FM11" t="n">
         <v>-0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
         <v>-0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>-0.02570577503691071</v>
+        <v>-0.004364323393124556</v>
       </c>
       <c r="FR11" t="n">
         <v>0</v>
       </c>
       <c r="FS11" t="n">
-        <v>-0</v>
+        <v>-0.03347795829537985</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.002774627714867146</v>
+        <v>0.0002360877417290831</v>
       </c>
       <c r="FU11" t="n">
-        <v>-0.01010560827650096</v>
+        <v>0</v>
       </c>
       <c r="FV11" t="n">
         <v>0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.00819179860501739</v>
+        <v>0.06398936262561127</v>
       </c>
       <c r="GA11" t="n">
         <v>0</v>
       </c>
       <c r="GB11" t="n">
-        <v>-0</v>
+        <v>0.08609539800691976</v>
       </c>
       <c r="GC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0.04203781344602039</v>
+        <v>0</v>
       </c>
       <c r="GE11" t="n">
         <v>0</v>
       </c>
       <c r="GF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1891554490320464</v>
+        <v>-0.770513474194241</v>
       </c>
       <c r="C12" t="n">
         <v>-0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3631627985025067</v>
+        <v>0.5584190239180331</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06257944032587179</v>
+        <v>-0.001546201939027836</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>-0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.1680380147252791</v>
+        <v>-0.5758384597554235</v>
       </c>
       <c r="L12" t="n">
         <v>-0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2772196600573397</v>
+        <v>0.4954384386152756</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.04704074439033427</v>
+        <v>0.08014584078809472</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R12" t="n">
         <v>-0</v>
       </c>
       <c r="S12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.03258316286401829</v>
+        <v>-0.1195432959027974</v>
       </c>
       <c r="U12" t="n">
         <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.05705871317245253</v>
+        <v>0.1234766840388874</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.1375125276590018</v>
+        <v>0.133021201234866</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
         <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.06383731017544682</v>
+        <v>-0.148964921156541</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1138699399096088</v>
+        <v>0.06547974011308851</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.0896220595474249</v>
+        <v>0.09842372966227569</v>
       </c>
       <c r="AG12" t="n">
         <v>-0</v>
@@ -6802,19 +6802,19 @@
         <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.03711934475923775</v>
+        <v>-0.1294625009305195</v>
       </c>
       <c r="AM12" t="n">
         <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.0221841240722557</v>
+        <v>0.05892446017983981</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.007736526492849525</v>
+        <v>0.05452792567984467</v>
       </c>
       <c r="AP12" t="n">
         <v>-0</v>
@@ -6823,7 +6823,7 @@
         <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS12" t="n">
         <v>-0</v>
@@ -6832,52 +6832,52 @@
         <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0.1204204064396612</v>
+        <v>-0.4010295643401878</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.08867354813493618</v>
+        <v>0.181603368389571</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.01582742622776362</v>
+        <v>-0.04961249060251804</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA12" t="n">
         <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0.03348559468311722</v>
+        <v>-0.07298821020661865</v>
       </c>
       <c r="BE12" t="n">
         <v>-0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.1730447082518779</v>
+        <v>0.1470505344040834</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.004483723062030543</v>
+        <v>0.206431787515752</v>
       </c>
       <c r="BH12" t="n">
         <v>-0</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK12" t="n">
         <v>-0</v>
@@ -6886,97 +6886,97 @@
         <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.05322528993909604</v>
+        <v>-0.1197126936066577</v>
       </c>
       <c r="BN12" t="n">
         <v>-0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.03195485755108769</v>
+        <v>-0.1121177769058646</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.01547128106375107</v>
+        <v>-0.04616492631513487</v>
       </c>
       <c r="BQ12" t="n">
         <v>0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0.04285169683801877</v>
+        <v>-0.3934003966893388</v>
       </c>
       <c r="BW12" t="n">
         <v>-0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.1041342082343495</v>
+        <v>0.1970108997058102</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.05194837263036771</v>
+        <v>0.004986210057598064</v>
       </c>
       <c r="BZ12" t="n">
         <v>-0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD12" t="n">
         <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.04824214316340478</v>
+        <v>0.1191644594890167</v>
       </c>
       <c r="CF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.06837457951437784</v>
+        <v>-0.09587585485212861</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.01714567995208927</v>
+        <v>0.0400349699326466</v>
       </c>
       <c r="CI12" t="n">
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.02433784627900286</v>
+        <v>-0.01368319867576999</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0.01676787831263499</v>
+        <v>0.03329915683221254</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1358863324878529</v>
+        <v>0.06609019375686949</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="CT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU12" t="n">
         <v>-0</v>
@@ -6994,52 +6994,52 @@
         <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.03719338286512406</v>
+        <v>0.1265654154199616</v>
       </c>
       <c r="CX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.06035139852228912</v>
+        <v>-0.1219826734584444</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.01960566360182959</v>
+        <v>0.04411738645394709</v>
       </c>
       <c r="DA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.05915734566237081</v>
+        <v>0.08576873498947099</v>
       </c>
       <c r="DG12" t="n">
         <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.02410646825012299</v>
+        <v>-0.1952283225302615</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.01338773227422367</v>
+        <v>-0.01656502080716098</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK12" t="n">
         <v>0</v>
       </c>
       <c r="DL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
@@ -7048,25 +7048,25 @@
         <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>-0.003691826303096235</v>
+        <v>0.05657241151899162</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.03761046427117927</v>
+        <v>-0.02906567094357025</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.02391362356722139</v>
+        <v>0.06646119740743489</v>
       </c>
       <c r="DS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT12" t="n">
         <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
         <v>-0</v>
@@ -7075,16 +7075,16 @@
         <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.05590599189598119</v>
+        <v>0.1344902793679884</v>
       </c>
       <c r="DY12" t="n">
         <v>-0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.04515712704326793</v>
+        <v>0.09860548440401791</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.01461553864527471</v>
+        <v>-0.004026901749638948</v>
       </c>
       <c r="EB12" t="n">
         <v>-0</v>
@@ -7096,25 +7096,25 @@
         <v>-0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.03780271090679689</v>
+        <v>0.04066509336699618</v>
       </c>
       <c r="EH12" t="n">
         <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.135890676064509</v>
+        <v>-0.06032274545075186</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.02795183036659753</v>
+        <v>-0.0119944933285821</v>
       </c>
       <c r="EK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL12" t="n">
         <v>0</v>
@@ -7123,58 +7123,58 @@
         <v>0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.01391593653484642</v>
+        <v>0.1386616596901079</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.002453602800805124</v>
+        <v>-0.07281171680567951</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.03029894169120239</v>
+        <v>0.009047663553885246</v>
       </c>
       <c r="ET12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU12" t="n">
         <v>0</v>
       </c>
       <c r="EV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW12" t="n">
         <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.04250502372909826</v>
+        <v>0.1179812924171284</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.05693121218913464</v>
+        <v>-0.128705765070022</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.02469901381774771</v>
+        <v>0.05135715373767621</v>
       </c>
       <c r="FC12" t="n">
         <v>0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF12" t="n">
         <v>-0</v>
@@ -7183,16 +7183,16 @@
         <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0.01581176293813994</v>
+        <v>0.06331671133442181</v>
       </c>
       <c r="FI12" t="n">
         <v>0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.05848652782306773</v>
+        <v>-0.05196123262397379</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.02891965124707359</v>
+        <v>-0.01398030333586952</v>
       </c>
       <c r="FL12" t="n">
         <v>0</v>
@@ -7204,46 +7204,46 @@
         <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.01914026040040289</v>
+        <v>-0.04028311034348863</v>
       </c>
       <c r="FR12" t="n">
         <v>0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.00157022861075099</v>
+        <v>0.03183581492907049</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.0100446395696461</v>
+        <v>0.03227688320287642</v>
       </c>
       <c r="FU12" t="n">
         <v>0</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW12" t="n">
         <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.03057254023226914</v>
+        <v>-0.01451143983814998</v>
       </c>
       <c r="GA12" t="n">
         <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.04796168307523879</v>
+        <v>0.03961548978245614</v>
       </c>
       <c r="GC12" t="n">
         <v>-0</v>
@@ -7252,147 +7252,147 @@
         <v>0</v>
       </c>
       <c r="GE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF12" t="n">
         <v>-0</v>
       </c>
       <c r="GG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0.237050161342131</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.211214562702579</v>
+        <v>0.3264091191912683</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1229491826322262</v>
+        <v>-0.01334948767833292</v>
       </c>
       <c r="F13" t="n">
         <v>-0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.447623559879442</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
         <v>-0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>-0.1216481109166054</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1400051539563781</v>
+        <v>0.2970897122750605</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2050930758759599</v>
+        <v>0.01883587870668917</v>
       </c>
       <c r="O13" t="n">
         <v>-0</v>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5245803580647624</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
         <v>-0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>-0.04591712628129267</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.02670816597716747</v>
+        <v>0.06019554962637719</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2188821424581928</v>
+        <v>0.002886326374521131</v>
       </c>
       <c r="X13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1653487101249981</v>
+        <v>-0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>-0.01164374053241764</v>
       </c>
       <c r="AD13" t="n">
         <v>-0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.05696305689471699</v>
+        <v>-0.01785233748883714</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.0006409166566998016</v>
+        <v>-0.01831993563582293</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.07574422741071248</v>
+        <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK13" t="n">
         <v>-0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>-0.02483397491129846</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.06414414586373968</v>
+        <v>0.06188651108657639</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.06975079641364061</v>
+        <v>0.05672723402563085</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.06070196370834024</v>
+        <v>-0</v>
       </c>
       <c r="AS13" t="n">
         <v>-0</v>
@@ -7401,70 +7401,70 @@
         <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>-0.2084285070325546</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.124786292223332</v>
+        <v>0.09276646746983967</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1319829249138731</v>
+        <v>-0.0431980227255577</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.3152836594151091</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC13" t="n">
         <v>-0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0</v>
+        <v>-0.003281314998267222</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.09086839430121287</v>
+        <v>0.1218544521296967</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.004163634102274037</v>
+        <v>0.1249774854563081</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.1176757380607242</v>
+        <v>-0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0</v>
+        <v>-0.03637210217549814</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.01370926485378644</v>
+        <v>-0.01876659517638418</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.02307943336789107</v>
+        <v>-0.08928586288099404</v>
       </c>
       <c r="BQ13" t="n">
         <v>0</v>
@@ -7473,79 +7473,79 @@
         <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>-0.06618730978754306</v>
+        <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>-0.1004864921060331</v>
       </c>
       <c r="BW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.06677531305846987</v>
+        <v>0.02890188888327556</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.1149386770342264</v>
+        <v>-0.0228788068493051</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.2034396138519614</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>0.0415210043002123</v>
       </c>
       <c r="CF13" t="n">
         <v>-0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.06713377603613087</v>
+        <v>-0.05362939091512686</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.0673269220359342</v>
+        <v>0.03738118405341904</v>
       </c>
       <c r="CI13" t="n">
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK13" t="n">
-        <v>-0.08818719645196033</v>
+        <v>-0</v>
       </c>
       <c r="CL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0.06170760578213239</v>
       </c>
       <c r="CO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.05312918550930926</v>
+        <v>0.04279557761137583</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.2224886009831502</v>
+        <v>0.0297722077654516</v>
       </c>
       <c r="CR13" t="n">
         <v>-0</v>
@@ -7554,52 +7554,52 @@
         <v>0</v>
       </c>
       <c r="CT13" t="n">
-        <v>-0.07651166402205344</v>
+        <v>0</v>
       </c>
       <c r="CU13" t="n">
         <v>-0</v>
       </c>
       <c r="CV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>0.04407291897571493</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.06439928476597541</v>
+        <v>-0.05332385520707417</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.07801427392547403</v>
+        <v>0.0175764224989942</v>
       </c>
       <c r="DA13" t="n">
         <v>-0</v>
       </c>
       <c r="DB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC13" t="n">
-        <v>-0.08304493636694783</v>
+        <v>0</v>
       </c>
       <c r="DD13" t="n">
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>-0</v>
+        <v>-0.004432617258273545</v>
       </c>
       <c r="DG13" t="n">
         <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0.003037441889374326</v>
+        <v>-0.0259033686607053</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.021738550110421</v>
+        <v>0.02850397755753761</v>
       </c>
       <c r="DJ13" t="n">
         <v>0</v>
@@ -7608,79 +7608,79 @@
         <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.01560119268829143</v>
+        <v>-0</v>
       </c>
       <c r="DM13" t="n">
         <v>-0</v>
       </c>
       <c r="DN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>0.02432052914685516</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.02770278177838943</v>
+        <v>0.03786080008191293</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.09823867274144503</v>
+        <v>-0.001010262279791043</v>
       </c>
       <c r="DS13" t="n">
         <v>-0</v>
       </c>
       <c r="DT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>-0.1057237505763544</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
         <v>-0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>-0.01771801974101739</v>
       </c>
       <c r="DY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0.01359606856647873</v>
+        <v>-0.01247983222390304</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0495669339779608</v>
+        <v>-0.01007704819315889</v>
       </c>
       <c r="EB13" t="n">
         <v>0</v>
       </c>
       <c r="EC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED13" t="n">
-        <v>-0.1133677557048368</v>
+        <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>0.01525103194310808</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.1039128276585605</v>
+        <v>-0.03385209342539683</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.06013927794664321</v>
+        <v>0.003515375788503973</v>
       </c>
       <c r="EK13" t="n">
         <v>0</v>
@@ -7689,106 +7689,106 @@
         <v>0</v>
       </c>
       <c r="EM13" t="n">
-        <v>-0.1101340026266555</v>
+        <v>0</v>
       </c>
       <c r="EN13" t="n">
         <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0</v>
+        <v>0.03733688304514752</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.0166360859191243</v>
+        <v>0.00384055230125505</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.004768050761389767</v>
+        <v>-0.001147125115477005</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.008704354926224645</v>
+        <v>-0</v>
       </c>
       <c r="EW13" t="n">
         <v>0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>0.04342617232110002</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.06714943630895527</v>
+        <v>-0.04486585658349346</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.07429832709632617</v>
+        <v>0.02080317511084892</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE13" t="n">
-        <v>-0.08294878775564836</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>0.01862471264788797</v>
       </c>
       <c r="FI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.0679169477275916</v>
+        <v>-0.03350520536153774</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.09705126615778328</v>
+        <v>0.008675828222694386</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>-0.05702045179364375</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0</v>
+        <v>-0.003137016398846191</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.002410845856766428</v>
+        <v>0.008975647927561359</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.001722851233552919</v>
+        <v>0.006195530780974849</v>
       </c>
       <c r="FU13" t="n">
         <v>0</v>
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0.1161876393540627</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
         <v>-0</v>
@@ -7806,25 +7806,25 @@
         <v>0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>-0.01706859654302902</v>
       </c>
       <c r="GA13" t="n">
         <v>0</v>
       </c>
       <c r="GB13" t="n">
-        <v>-0.04222848413942457</v>
+        <v>0.07005085678739789</v>
       </c>
       <c r="GC13" t="n">
         <v>-0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE13" t="n">
         <v>0</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0.06032909364491546</v>
+        <v>-0</v>
       </c>
       <c r="GG13" t="n">
         <v>0</v>
